--- a/misc/htna2025/M205.sampleinfo.xlsx
+++ b/misc/htna2025/M205.sampleinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hover/git/mapseq-processing/misc/htna25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hover/git/mapseq-processing/misc/htna2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A9EF7C2-C528-9547-9E57-8D6E0595420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D922A-DD9F-E749-845E-75388DA44A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41500" yWindow="960" windowWidth="40640" windowHeight="22240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47040" yWindow="1280" windowWidth="43360" windowHeight="23140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From user" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="285">
   <si>
     <t>Tube # Mseq205</t>
   </si>
@@ -894,6 +894,27 @@
   </si>
   <si>
     <t>Read Count Minimum</t>
+  </si>
+  <si>
+    <t>Site Information codes</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>injection-water-control</t>
+  </si>
+  <si>
+    <t>target-water-control</t>
+  </si>
+  <si>
+    <t>target-lone-control</t>
+  </si>
+  <si>
+    <t>target-negative-control</t>
+  </si>
+  <si>
+    <t>target-wt-control</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1723,13 +1744,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2099,6 +2133,21 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2899,35 +2948,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="161" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="161" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="G1" s="161" t="s">
+      <c r="F1" s="28"/>
+      <c r="J1" s="161" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="44" customFormat="1" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="44" customFormat="1" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>38</v>
       </c>
@@ -2940,27 +2990,36 @@
       <c r="D2" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="G2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="167" t="s">
+      <c r="H2" s="167" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="167" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="K2" s="167" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="L2" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="M2" s="167" t="s">
         <v>271</v>
       </c>
-      <c r="K2" s="78"/>
-    </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N2" s="78"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="140" t="s">
         <v>41</v>
       </c>
@@ -2969,28 +3028,33 @@
       </c>
       <c r="C3" s="141"/>
       <c r="D3" s="141"/>
-      <c r="E3" s="157">
+      <c r="E3" s="141">
         <v>1</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="157">
+        <v>1</v>
+      </c>
+      <c r="G3" s="157" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="162">
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="162">
         <v>1</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="K3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="162">
+      <c r="L3" s="162">
         <v>1</v>
       </c>
-      <c r="J3" s="140" t="s">
+      <c r="M3" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="165"/>
-      <c r="P3" s="130"/>
-    </row>
-    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="N3" s="165"/>
+      <c r="S3" s="130"/>
+    </row>
+    <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="146" t="s">
         <v>11</v>
       </c>
@@ -2999,31 +3063,36 @@
       </c>
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
-      <c r="E4" s="20">
+      <c r="E4" s="131">
         <v>2</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="20">
+        <v>2</v>
+      </c>
+      <c r="G4" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="163">
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="163">
         <v>2</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="K4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="163">
+      <c r="L4" s="163">
         <v>2</v>
       </c>
-      <c r="J4" s="146" t="s">
+      <c r="M4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="26" t="s">
+      <c r="N4" s="131"/>
+      <c r="O4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="130"/>
-    </row>
-    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="130"/>
+    </row>
+    <row r="5" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
         <v>13</v>
       </c>
@@ -3032,31 +3101,36 @@
       </c>
       <c r="C5" s="131"/>
       <c r="D5" s="131"/>
-      <c r="E5" s="20">
+      <c r="E5" s="131">
         <v>3</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="20">
+        <v>3</v>
+      </c>
+      <c r="G5" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="163">
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="163">
         <v>3</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="K5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="163">
+      <c r="L5" s="163">
         <v>3</v>
       </c>
-      <c r="J5" s="146" t="s">
+      <c r="M5" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="27" t="s">
+      <c r="N5" s="131"/>
+      <c r="O5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="130"/>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="S5" s="130"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
         <v>44</v>
       </c>
@@ -3065,28 +3139,36 @@
       </c>
       <c r="C6" s="131"/>
       <c r="D6" s="131"/>
-      <c r="E6" s="20">
+      <c r="E6" s="131">
         <v>4</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="20">
+        <v>4</v>
+      </c>
+      <c r="G6" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G6" s="162">
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="162">
         <v>4</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="K6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="162">
+      <c r="L6" s="162">
         <v>4</v>
       </c>
-      <c r="J6" s="146" t="s">
+      <c r="M6" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="P6" s="130"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N6" s="165"/>
+      <c r="P6" s="161" t="s">
+        <v>278</v>
+      </c>
+      <c r="S6" s="130"/>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="154" t="s">
         <v>17</v>
       </c>
@@ -3095,28 +3177,36 @@
       </c>
       <c r="C7" s="155"/>
       <c r="D7" s="155"/>
-      <c r="E7" s="68">
+      <c r="E7" s="155">
         <v>5</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="68">
+        <v>5</v>
+      </c>
+      <c r="G7" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="163">
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="163">
         <v>5</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="K7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="163">
+      <c r="L7" s="163">
         <v>5</v>
       </c>
-      <c r="J7" s="154" t="s">
+      <c r="M7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="P7" s="130"/>
-    </row>
-    <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="166"/>
+      <c r="P7" s="172" t="s">
+        <v>279</v>
+      </c>
+      <c r="S7" s="130"/>
+    </row>
+    <row r="8" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="146" t="s">
         <v>20</v>
       </c>
@@ -3125,28 +3215,36 @@
       </c>
       <c r="C8" s="131"/>
       <c r="D8" s="131"/>
-      <c r="E8" s="20">
+      <c r="E8" s="131">
         <v>6</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="20">
+        <v>6</v>
+      </c>
+      <c r="G8" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G8" s="163">
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="163">
         <v>6</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="K8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="163">
+      <c r="L8" s="163">
         <v>6</v>
       </c>
-      <c r="J8" s="146" t="s">
+      <c r="M8" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="P8" s="130"/>
-    </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N8" s="165"/>
+      <c r="P8" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="S8" s="130"/>
+    </row>
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="146" t="s">
         <v>45</v>
       </c>
@@ -3155,28 +3253,36 @@
       </c>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
-      <c r="E9" s="20">
+      <c r="E9" s="131">
         <v>7</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="20">
+        <v>7</v>
+      </c>
+      <c r="G9" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="162">
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="162">
         <v>7</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="K9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="162">
+      <c r="L9" s="162">
         <v>7</v>
       </c>
-      <c r="J9" s="146" t="s">
+      <c r="M9" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="165"/>
-      <c r="P9" s="130"/>
-    </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N9" s="165"/>
+      <c r="P9" s="172" t="s">
+        <v>270</v>
+      </c>
+      <c r="S9" s="130"/>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="154" t="s">
         <v>25</v>
       </c>
@@ -3185,27 +3291,35 @@
       </c>
       <c r="C10" s="155"/>
       <c r="D10" s="155"/>
-      <c r="E10" s="68">
+      <c r="E10" s="155">
         <v>8</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="68">
+        <v>8</v>
+      </c>
+      <c r="G10" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G10" s="163">
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="163">
         <v>8</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="K10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="163">
+      <c r="L10" s="163">
         <v>8</v>
       </c>
-      <c r="J10" s="154" t="s">
+      <c r="M10" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="166"/>
-    </row>
-    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="166"/>
+      <c r="P10" s="172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="146" t="s">
         <v>27</v>
       </c>
@@ -3214,27 +3328,35 @@
       </c>
       <c r="C11" s="131"/>
       <c r="D11" s="131"/>
-      <c r="E11" s="20">
+      <c r="E11" s="131">
         <v>9</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="20">
+        <v>9</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="163">
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="163">
         <v>9</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="K11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="163">
+      <c r="L11" s="163">
         <v>9</v>
       </c>
-      <c r="J11" s="146" t="s">
+      <c r="M11" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="165"/>
-    </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N11" s="165"/>
+      <c r="P11" s="172" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="146" t="s">
         <v>29</v>
       </c>
@@ -3243,27 +3365,35 @@
       </c>
       <c r="C12" s="131"/>
       <c r="D12" s="131"/>
-      <c r="E12" s="20">
+      <c r="E12" s="131">
         <v>10</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="20">
+        <v>10</v>
+      </c>
+      <c r="G12" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="162">
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="162">
         <v>10</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="K12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="162">
+      <c r="L12" s="162">
         <v>10</v>
       </c>
-      <c r="J12" s="146" t="s">
+      <c r="M12" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="165"/>
-    </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N12" s="165"/>
+      <c r="P12" s="172" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="146" t="s">
         <v>31</v>
       </c>
@@ -3272,27 +3402,35 @@
       </c>
       <c r="C13" s="131"/>
       <c r="D13" s="131"/>
-      <c r="E13" s="20">
+      <c r="E13" s="131">
         <v>11</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="20">
+        <v>11</v>
+      </c>
+      <c r="G13" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="163">
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="163">
         <v>11</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="K13" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="163">
+      <c r="L13" s="163">
         <v>11</v>
       </c>
-      <c r="J13" s="146" t="s">
+      <c r="M13" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="165"/>
-    </row>
-    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="165"/>
+      <c r="P13" s="172" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
         <v>34</v>
       </c>
@@ -3301,27 +3439,35 @@
       </c>
       <c r="C14" s="148"/>
       <c r="D14" s="148"/>
-      <c r="E14" s="153">
+      <c r="E14" s="148">
         <v>12</v>
       </c>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="153">
+        <v>12</v>
+      </c>
+      <c r="G14" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="163">
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="163">
         <v>12</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="K14" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="163">
+      <c r="L14" s="163">
         <v>12</v>
       </c>
-      <c r="J14" s="147" t="s">
+      <c r="M14" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="165"/>
-    </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N14" s="165"/>
+      <c r="P14" s="172" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="140" t="s">
         <v>41</v>
       </c>
@@ -3330,27 +3476,32 @@
       </c>
       <c r="C15" s="141"/>
       <c r="D15" s="141"/>
-      <c r="E15" s="157">
+      <c r="E15" s="141">
         <v>13</v>
       </c>
-      <c r="F15" s="159" t="s">
+      <c r="F15" s="157">
+        <v>13</v>
+      </c>
+      <c r="G15" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="162">
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="162">
         <v>13</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="K15" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="162">
+      <c r="L15" s="162">
         <v>13</v>
       </c>
-      <c r="J15" s="140" t="s">
+      <c r="M15" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="165"/>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="N15" s="165"/>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="146" t="s">
         <v>11</v>
       </c>
@@ -3359,27 +3510,32 @@
       </c>
       <c r="C16" s="131"/>
       <c r="D16" s="131"/>
-      <c r="E16" s="20">
+      <c r="E16" s="131">
         <v>14</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="20">
+        <v>14</v>
+      </c>
+      <c r="G16" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G16" s="163">
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="163">
         <v>14</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="K16" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="163">
+      <c r="L16" s="163">
         <v>14</v>
       </c>
-      <c r="J16" s="146" t="s">
+      <c r="M16" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="165"/>
-    </row>
-    <row r="17" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="165"/>
+    </row>
+    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="146" t="s">
         <v>13</v>
       </c>
@@ -3388,27 +3544,32 @@
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
-      <c r="E17" s="20">
+      <c r="E17" s="131">
         <v>15</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="20">
+        <v>15</v>
+      </c>
+      <c r="G17" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="163">
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="163">
         <v>15</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="K17" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="163">
+      <c r="L17" s="163">
         <v>15</v>
       </c>
-      <c r="J17" s="146" t="s">
+      <c r="M17" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="165"/>
-    </row>
-    <row r="18" spans="1:26" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="165"/>
+    </row>
+    <row r="18" spans="1:29" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="146" t="s">
         <v>44</v>
       </c>
@@ -3417,30 +3578,35 @@
       </c>
       <c r="C18" s="131"/>
       <c r="D18" s="131"/>
-      <c r="E18" s="20">
+      <c r="E18" s="131">
         <v>16</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="20">
+        <v>16</v>
+      </c>
+      <c r="G18" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="162">
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="162">
         <v>16</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="K18" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="162">
+      <c r="L18" s="162">
         <v>16</v>
       </c>
-      <c r="J18" s="146" t="s">
+      <c r="M18" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="165"/>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="165"/>
+      <c r="Q18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="154" t="s">
         <v>17</v>
       </c>
@@ -3449,66 +3615,71 @@
       </c>
       <c r="C19" s="155"/>
       <c r="D19" s="155"/>
-      <c r="E19" s="68">
+      <c r="E19" s="155">
         <v>17</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="68">
+        <v>17</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="163">
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="163">
         <v>17</v>
       </c>
-      <c r="H19" s="82" t="s">
+      <c r="K19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="163">
+      <c r="L19" s="163">
         <v>17</v>
       </c>
-      <c r="J19" s="154" t="s">
+      <c r="M19" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="166"/>
-      <c r="N19" s="160" t="s">
+      <c r="N19" s="166"/>
+      <c r="Q19" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="70">
+      <c r="R19" s="70">
         <v>1</v>
       </c>
-      <c r="P19" s="70">
+      <c r="S19" s="70">
         <v>2</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="T19" s="70">
         <v>3</v>
       </c>
-      <c r="R19" s="70">
+      <c r="U19" s="70">
         <v>4</v>
       </c>
-      <c r="S19" s="70">
+      <c r="V19" s="70">
         <v>5</v>
       </c>
-      <c r="T19" s="70">
+      <c r="W19" s="70">
         <v>6</v>
       </c>
-      <c r="U19" s="70">
+      <c r="X19" s="70">
         <v>7</v>
       </c>
-      <c r="V19" s="70">
+      <c r="Y19" s="70">
         <v>8</v>
       </c>
-      <c r="W19" s="70">
+      <c r="Z19" s="70">
         <v>9</v>
       </c>
-      <c r="X19" s="70">
+      <c r="AA19" s="70">
         <v>10</v>
       </c>
-      <c r="Y19" s="70">
+      <c r="AB19" s="70">
         <v>11</v>
       </c>
-      <c r="Z19" s="71">
+      <c r="AC19" s="71">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="146" t="s">
         <v>20</v>
       </c>
@@ -3517,50 +3688,55 @@
       </c>
       <c r="C20" s="131"/>
       <c r="D20" s="131"/>
-      <c r="E20" s="20">
+      <c r="E20" s="131">
         <v>18</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="20">
+        <v>18</v>
+      </c>
+      <c r="G20" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G20" s="163">
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="163">
         <v>18</v>
       </c>
-      <c r="H20" s="82" t="s">
+      <c r="K20" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="163">
+      <c r="L20" s="163">
         <v>18</v>
       </c>
-      <c r="J20" s="146" t="s">
+      <c r="M20" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="165"/>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="165"/>
+      <c r="Q20" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="68">
+      <c r="R20" s="68">
         <v>1</v>
       </c>
-      <c r="P20" s="68">
+      <c r="S20" s="68">
         <v>9</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="T20" s="68">
         <v>17</v>
       </c>
-      <c r="R20" s="68" t="s">
+      <c r="U20" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
       <c r="V20" s="68"/>
       <c r="W20" s="68"/>
       <c r="X20" s="68"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="73"/>
-    </row>
-    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="73"/>
+    </row>
+    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="146" t="s">
         <v>45</v>
       </c>
@@ -3569,50 +3745,55 @@
       </c>
       <c r="C21" s="131"/>
       <c r="D21" s="131"/>
-      <c r="E21" s="20">
+      <c r="E21" s="131">
         <v>19</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="20">
+        <v>19</v>
+      </c>
+      <c r="G21" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G21" s="162">
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="162">
         <v>19</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="K21" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="162">
+      <c r="L21" s="162">
         <v>19</v>
       </c>
-      <c r="J21" s="146" t="s">
+      <c r="M21" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="165"/>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="165"/>
+      <c r="Q21" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="68">
+      <c r="R21" s="68">
         <v>2</v>
       </c>
-      <c r="P21" s="68">
+      <c r="S21" s="68">
         <v>10</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="T21" s="68">
         <v>18</v>
       </c>
-      <c r="R21" s="68" t="s">
+      <c r="U21" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
       <c r="V21" s="68"/>
       <c r="W21" s="68"/>
       <c r="X21" s="68"/>
       <c r="Y21" s="68"/>
-      <c r="Z21" s="73"/>
-    </row>
-    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="73"/>
+    </row>
+    <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="154" t="s">
         <v>25</v>
       </c>
@@ -3621,48 +3802,53 @@
       </c>
       <c r="C22" s="155"/>
       <c r="D22" s="155"/>
-      <c r="E22" s="68">
+      <c r="E22" s="155">
         <v>20</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="68">
+        <v>20</v>
+      </c>
+      <c r="G22" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="163">
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="163">
         <v>20</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="K22" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="163">
+      <c r="L22" s="163">
         <v>20</v>
       </c>
-      <c r="J22" s="154" t="s">
+      <c r="M22" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="166"/>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="166"/>
+      <c r="Q22" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="O22" s="68">
+      <c r="R22" s="68">
         <v>3</v>
       </c>
-      <c r="P22" s="68">
+      <c r="S22" s="68">
         <v>11</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="T22" s="68">
         <v>19</v>
       </c>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
       <c r="U22" s="68"/>
       <c r="V22" s="68"/>
       <c r="W22" s="68"/>
       <c r="X22" s="68"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="73"/>
-    </row>
-    <row r="23" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="73"/>
+    </row>
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="146" t="s">
         <v>27</v>
       </c>
@@ -3671,48 +3857,53 @@
       </c>
       <c r="C23" s="131"/>
       <c r="D23" s="131"/>
-      <c r="E23" s="20">
+      <c r="E23" s="131">
         <v>21</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="20">
+        <v>21</v>
+      </c>
+      <c r="G23" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G23" s="163">
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="163">
         <v>21</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="K23" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="163">
+      <c r="L23" s="163">
         <v>21</v>
       </c>
-      <c r="J23" s="146" t="s">
+      <c r="M23" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="165"/>
-      <c r="N23" s="72" t="s">
+      <c r="N23" s="165"/>
+      <c r="Q23" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="68">
+      <c r="R23" s="68">
         <v>4</v>
       </c>
-      <c r="P23" s="68">
+      <c r="S23" s="68">
         <v>12</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="T23" s="68">
         <v>20</v>
       </c>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
       <c r="U23" s="68"/>
       <c r="V23" s="68"/>
       <c r="W23" s="68"/>
       <c r="X23" s="68"/>
       <c r="Y23" s="68"/>
-      <c r="Z23" s="73"/>
-    </row>
-    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="73"/>
+    </row>
+    <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="146" t="s">
         <v>29</v>
       </c>
@@ -3721,48 +3912,53 @@
       </c>
       <c r="C24" s="131"/>
       <c r="D24" s="131"/>
-      <c r="E24" s="20">
+      <c r="E24" s="131">
         <v>22</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="20">
+        <v>22</v>
+      </c>
+      <c r="G24" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G24" s="162">
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="162">
         <v>22</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="K24" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="162">
+      <c r="L24" s="162">
         <v>22</v>
       </c>
-      <c r="J24" s="146" t="s">
+      <c r="M24" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="165"/>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="165"/>
+      <c r="Q24" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="68">
+      <c r="R24" s="68">
         <v>5</v>
       </c>
-      <c r="P24" s="68">
+      <c r="S24" s="68">
         <v>13</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="T24" s="68">
         <v>21</v>
       </c>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
       <c r="U24" s="68"/>
       <c r="V24" s="68"/>
       <c r="W24" s="68"/>
       <c r="X24" s="68"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="73"/>
-    </row>
-    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="73"/>
+    </row>
+    <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="146" t="s">
         <v>31</v>
       </c>
@@ -3771,48 +3967,53 @@
       </c>
       <c r="C25" s="131"/>
       <c r="D25" s="131"/>
-      <c r="E25" s="20">
+      <c r="E25" s="131">
         <v>23</v>
       </c>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="20">
+        <v>23</v>
+      </c>
+      <c r="G25" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G25" s="163">
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="163">
         <v>23</v>
       </c>
-      <c r="H25" s="82" t="s">
+      <c r="K25" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="163">
+      <c r="L25" s="163">
         <v>23</v>
       </c>
-      <c r="J25" s="146" t="s">
+      <c r="M25" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="165"/>
-      <c r="N25" s="72" t="s">
+      <c r="N25" s="165"/>
+      <c r="Q25" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="68">
+      <c r="R25" s="68">
         <v>6</v>
       </c>
-      <c r="P25" s="68">
+      <c r="S25" s="68">
         <v>14</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="T25" s="68">
         <v>22</v>
       </c>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
       <c r="U25" s="68"/>
       <c r="V25" s="68"/>
       <c r="W25" s="68"/>
       <c r="X25" s="68"/>
       <c r="Y25" s="68"/>
-      <c r="Z25" s="73"/>
-    </row>
-    <row r="26" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="73"/>
+    </row>
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="147" t="s">
         <v>34</v>
       </c>
@@ -3821,48 +4022,53 @@
       </c>
       <c r="C26" s="148"/>
       <c r="D26" s="148"/>
-      <c r="E26" s="153">
+      <c r="E26" s="148">
         <v>24</v>
       </c>
-      <c r="F26" s="158" t="s">
+      <c r="F26" s="153">
+        <v>24</v>
+      </c>
+      <c r="G26" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="G26" s="163">
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="163">
         <v>24</v>
       </c>
-      <c r="H26" s="84" t="s">
+      <c r="K26" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="163">
+      <c r="L26" s="163">
         <v>24</v>
       </c>
-      <c r="J26" s="147" t="s">
+      <c r="M26" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="165"/>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="165"/>
+      <c r="Q26" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="68">
+      <c r="R26" s="68">
         <v>7</v>
       </c>
-      <c r="P26" s="68">
+      <c r="S26" s="68">
         <v>15</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="T26" s="68">
         <v>23</v>
       </c>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
       <c r="U26" s="68"/>
       <c r="V26" s="68"/>
       <c r="W26" s="68"/>
       <c r="X26" s="68"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="73"/>
-    </row>
-    <row r="27" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="73"/>
+    </row>
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
       <c r="B27" s="116" t="s">
         <v>47</v>
@@ -3870,42 +4076,45 @@
       <c r="C27" s="116"/>
       <c r="D27" s="116"/>
       <c r="E27" s="116"/>
-      <c r="F27" s="156" t="s">
+      <c r="F27" s="116"/>
+      <c r="G27" s="156" t="s">
         <v>275</v>
       </c>
-      <c r="G27" s="162">
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="162">
         <v>25</v>
       </c>
-      <c r="H27" s="156"/>
-      <c r="I27" s="162">
+      <c r="K27" s="156"/>
+      <c r="L27" s="162">
         <v>25</v>
       </c>
-      <c r="J27" s="116" t="s">
+      <c r="M27" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="74" t="s">
+      <c r="Q27" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="O27" s="75">
+      <c r="R27" s="75">
         <v>8</v>
       </c>
-      <c r="P27" s="75">
+      <c r="S27" s="75">
         <v>16</v>
       </c>
-      <c r="Q27" s="75">
+      <c r="T27" s="75">
         <v>24</v>
       </c>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
       <c r="U27" s="75"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
       <c r="Y27" s="75"/>
-      <c r="Z27" s="76"/>
-    </row>
-    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="76"/>
+    </row>
+    <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>49</v>
@@ -3913,91 +4122,112 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="136" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="G28" s="163">
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="163">
         <v>26</v>
       </c>
-      <c r="H28" s="136"/>
-      <c r="I28" s="163">
+      <c r="K28" s="136"/>
+      <c r="L28" s="163">
         <v>26</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="M28" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="F29" s="128"/>
+    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="G29" s="128"/>
       <c r="H29" s="128"/>
-    </row>
-    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="F30" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="K29" s="128"/>
+    </row>
+    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="G30" s="128"/>
       <c r="H30" s="128"/>
-    </row>
-    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="F31" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="K30" s="128"/>
+    </row>
+    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="G31" s="128"/>
       <c r="H31" s="128"/>
-    </row>
-    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="F32" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="K31" s="128"/>
+    </row>
+    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="G32" s="128"/>
       <c r="H32" s="128"/>
-    </row>
-    <row r="33" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="F33" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="K32" s="128"/>
+    </row>
+    <row r="33" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G33" s="128"/>
       <c r="H33" s="128"/>
-    </row>
-    <row r="34" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="F34" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="K33" s="128"/>
+    </row>
+    <row r="34" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G34" s="128"/>
       <c r="H34" s="128"/>
-    </row>
-    <row r="35" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="F35" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="K34" s="128"/>
+    </row>
+    <row r="35" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G35" s="128"/>
       <c r="H35" s="128"/>
-    </row>
-    <row r="36" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="F36" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="K35" s="128"/>
+    </row>
+    <row r="36" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G36" s="128"/>
       <c r="H36" s="128"/>
-    </row>
-    <row r="37" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="F37" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="K36" s="128"/>
+    </row>
+    <row r="37" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G37" s="128"/>
       <c r="H37" s="128"/>
-    </row>
-    <row r="38" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H38" s="128"/>
-    </row>
-    <row r="39" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H39" s="128"/>
-    </row>
-    <row r="40" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H40" s="128"/>
-    </row>
-    <row r="41" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H41" s="128"/>
-    </row>
-    <row r="42" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H42" s="128"/>
-    </row>
-    <row r="43" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H43" s="128"/>
-    </row>
-    <row r="44" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H44" s="128"/>
-    </row>
-    <row r="45" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H45" s="128"/>
-    </row>
-    <row r="46" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H46" s="128"/>
-    </row>
-    <row r="47" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H47" s="128"/>
-    </row>
-    <row r="48" spans="6:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H48" s="128"/>
-    </row>
-    <row r="49" spans="8:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H49" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="K37" s="128"/>
+    </row>
+    <row r="38" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K38" s="128"/>
+    </row>
+    <row r="39" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K39" s="128"/>
+    </row>
+    <row r="40" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K40" s="128"/>
+    </row>
+    <row r="41" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K41" s="128"/>
+    </row>
+    <row r="42" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K42" s="128"/>
+    </row>
+    <row r="43" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K43" s="128"/>
+    </row>
+    <row r="44" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K44" s="128"/>
+    </row>
+    <row r="45" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K45" s="128"/>
+    </row>
+    <row r="46" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K46" s="128"/>
+    </row>
+    <row r="47" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K47" s="128"/>
+    </row>
+    <row r="48" spans="7:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K48" s="128"/>
+    </row>
+    <row r="49" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K49" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/misc/htna2025/M205.sampleinfo.xlsx
+++ b/misc/htna2025/M205.sampleinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hover/git/mapseq-processing/misc/htna2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D922A-DD9F-E749-845E-75388DA44A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4695CA8-9D8A-1D48-B849-63E1ECDD7FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47040" yWindow="1280" windowWidth="43360" windowHeight="23140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="880" windowWidth="31400" windowHeight="19600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From user" sheetId="6" r:id="rId1"/>
@@ -887,9 +887,6 @@
     <t>Brain</t>
   </si>
   <si>
-    <t>target-control</t>
-  </si>
-  <si>
     <t>Spike-in Ratio</t>
   </si>
   <si>
@@ -915,6 +912,9 @@
   </si>
   <si>
     <t>target-wt-control</t>
+  </si>
+  <si>
+    <t>_-</t>
   </si>
 </sst>
 </file>
@@ -2950,8 +2950,8 @@
   </sheetPr>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2959,7 +2959,8 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="9" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.5" style="161" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
@@ -2985,10 +2986,10 @@
         <v>273</v>
       </c>
       <c r="C2" s="167" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="167" t="s">
         <v>276</v>
-      </c>
-      <c r="D2" s="167" t="s">
-        <v>277</v>
       </c>
       <c r="E2" s="167" t="s">
         <v>38</v>
@@ -3000,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="167" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="167" t="s">
         <v>276</v>
-      </c>
-      <c r="I2" s="167" t="s">
-        <v>277</v>
       </c>
       <c r="J2" s="167" t="s">
         <v>40</v>
@@ -3164,7 +3165,7 @@
       </c>
       <c r="N6" s="165"/>
       <c r="P6" s="161" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S6" s="130"/>
     </row>
@@ -3202,7 +3203,7 @@
       </c>
       <c r="N7" s="166"/>
       <c r="P7" s="172" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S7" s="130"/>
     </row>
@@ -3240,7 +3241,7 @@
       </c>
       <c r="N8" s="165"/>
       <c r="P8" s="172" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S8" s="130"/>
     </row>
@@ -3316,7 +3317,7 @@
       </c>
       <c r="N10" s="166"/>
       <c r="P10" s="172" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3353,7 +3354,7 @@
       </c>
       <c r="N11" s="165"/>
       <c r="P11" s="172" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -3427,7 +3428,7 @@
       </c>
       <c r="N13" s="165"/>
       <c r="P13" s="172" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3464,7 +3465,7 @@
       </c>
       <c r="N14" s="165"/>
       <c r="P14" s="172" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -3537,7 +3538,7 @@
     </row>
     <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="146" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="B17" s="131" t="s">
         <v>13</v>
@@ -4078,7 +4079,7 @@
       <c r="E27" s="116"/>
       <c r="F27" s="116"/>
       <c r="G27" s="156" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H27" s="169"/>
       <c r="I27" s="169"/>
@@ -4124,7 +4125,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="136" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
